--- a/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
+++ b/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F48AE-D0BB-4FEC-B471-94DBB4C29151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="1095" windowWidth="23340" windowHeight="13440" xr2:uid="{561AA0B4-CCB5-42C9-B3D4-962983F2D183}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -652,7 +647,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -802,19 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -832,10 +815,22 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1163,11 +1158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723EBF3E-ECDE-4295-BB7C-62119A1A5E35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1179,776 +1174,780 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="9"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="9"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="9"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7" t="s">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7" t="s">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7" t="s">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
@@ -1956,7 +1955,7 @@
       </c>
       <c r="D66" s="1">
         <f>SUM(E2:E64)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
@@ -1965,7 +1964,7 @@
       </c>
       <c r="D67" s="1">
         <f>COUNTA(C2:C64)-D66</f>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
@@ -1978,29 +1977,16 @@
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="7">
         <f>SUM(E2:E64)/COUNTA(C2:C64)</f>
-        <v>0.15873015873015872</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="B24:B27"/>
@@ -2008,6 +1994,19 @@
     <mergeCell ref="A28:A47"/>
     <mergeCell ref="A16:A27"/>
     <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:E64">
@@ -2016,6 +2015,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
+++ b/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
@@ -196,451 +196,451 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>로그인/로그아웃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중인 주문내역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 주문내역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashtag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberUpdateForm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 메뉴 진입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정/탈퇴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuDetail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 메뉴 상세+카트페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해쉬태그 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색어 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트에 메뉴 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트에서 메뉴 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게검색/메뉴상세/카트추가삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식 주문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderForm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식 주문폼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰쓰기액션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정액션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 로그인/로그아웃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 가입 승인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 영업 정지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 활동정지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 작성폼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 작성 액션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 수정폼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 수정 액션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 상세 내용 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상태 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그아웃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인페이지 입장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인/로그아웃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입점 레스토랑 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 묻는 질문 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 메뉴 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 주문 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 리뷰 관리/리뷰답글작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 로그인폼 or 로그인시 레스토랑 미리보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_foodmenu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_foodmenuUpdateForm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_foodmenuUpdate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_foodmenuAddForm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_foodmenuAdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_foodmenuDelete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸드메뉴 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸드메뉴 추가폼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸드메뉴 추가액션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸드메뉴 수정액션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸드메뉴 수정폼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸드메뉴 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달완료로 상태변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세내역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 주문리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 리뷰답글 저장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 리뷰답글 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 탈퇴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 기본정보 수정폼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 기본정보 수정액션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 가입액션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레스토랑 가입/수정/탈퇴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재진행률</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>command 값</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>command 내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료여부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료된 command</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업할 command</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 command</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderInsert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역 상세+리뷰폼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberReviewWrite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberMypage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberJoin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberJoinForm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberWithdrawalMember</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberOrderList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberOrderAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberOrderDetail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_loginForm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_logout</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_restaurantList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_restaurantOk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_restaurantKick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_memberList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_memberKick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_orderList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_orderEdit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_qnaList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_qnaView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_qnaWriteForm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_qnaWrite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_qnaUpdateForm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_qnaUpdate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_qnaDelete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 게시판</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정폼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>마이페이지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인/로그아웃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중인 주문내역</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거 주문내역</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hashtag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberUpdateForm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 메뉴 진입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보수정/탈퇴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuDetail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가게 메뉴 상세+카트페이지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해쉬태그 검색</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 검색</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색어 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카트에 메뉴 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카트에서 메뉴 삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가게검색/메뉴상세/카트추가삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>음식 주문</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderForm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>음식 주문폼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰쓰기액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보수정폼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보수정액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 로그인/로그아웃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 가입 승인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 영업 정지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 활동정지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주묻는질문 작성폼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주묻는질문 작성 액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주묻는질문 수정폼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주묻는질문 수정 액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주묻는질문 삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주묻는질문 상세 내용 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주묻는질문 리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 상태 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 로그인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 로그아웃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 로그인페이지 입장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 로그인/로그아웃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입점 레스토랑 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주 묻는 질문 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 메뉴 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 주문 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 리뷰 관리/리뷰답글작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 로그인폼 or 로그인시 레스토랑 미리보기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_foodmenu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_foodmenuUpdateForm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_foodmenuUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_foodmenuAddForm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_foodmenuAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_foodmenuDelete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸드메뉴 삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸드메뉴 추가폼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸드메뉴 추가액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸드메뉴 수정액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸드메뉴 수정폼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸드메뉴 리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>배달완료로 상태변경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세내역</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 주문리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 리뷰답글 저장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 리뷰답글 리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 탈퇴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 기본정보 수정폼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 기본정보 수정액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 가입액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레스토랑 가입/수정/탈퇴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재진행률</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>command 값</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>command 내용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료여부</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료된 command</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업할 command</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 command</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderInsert</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역 상세+리뷰폼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberReviewWrite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberMypage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberJoin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberJoinForm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberWithdrawalMember</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberOrderList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberOrderAll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberOrderDetail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_loginForm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_logout</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_restaurantList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_restaurantOk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_restaurantKick</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_memberList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_memberKick</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_orderList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_orderEdit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_qnaList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_qnaView</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_qnaWriteForm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_qnaWrite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_qnaUpdateForm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_qnaUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_qnaDelete</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주묻는질문 게시판</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1175,19 +1175,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1249,13 +1249,13 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1278,10 +1278,10 @@
       <c r="A8" s="14"/>
       <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1291,10 +1291,10 @@
       <c r="A9" s="14"/>
       <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -1305,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1316,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1324,10 +1324,10 @@
       <c r="A12" s="14"/>
       <c r="B12" s="13"/>
       <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1335,23 +1335,23 @@
       <c r="A13" s="14"/>
       <c r="B13" s="13"/>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -1362,19 +1362,19 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -1413,7 +1413,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>35</v>
@@ -1425,13 +1425,13 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1440,13 +1440,13 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -1457,7 +1457,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -1465,23 +1465,23 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -1489,10 +1489,10 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -1500,10 +1500,10 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -1511,10 +1511,10 @@
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -1523,13 +1523,13 @@
         <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -1547,7 +1547,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
@@ -1586,7 +1586,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" s="5"/>
     </row>
@@ -1597,7 +1597,7 @@
         <v>17</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -1608,7 +1608,7 @@
         <v>19</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -1619,20 +1619,20 @@
         <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="5"/>
     </row>
@@ -1643,20 +1643,20 @@
         <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E39" s="5"/>
     </row>
@@ -1667,7 +1667,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="5"/>
     </row>
@@ -1678,20 +1678,20 @@
         <v>24</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="5"/>
     </row>
@@ -1699,10 +1699,10 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E43" s="5"/>
     </row>
@@ -1710,10 +1710,10 @@
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44" s="5"/>
     </row>
@@ -1721,10 +1721,10 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E45" s="5"/>
     </row>
@@ -1732,10 +1732,10 @@
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" s="5"/>
     </row>
@@ -1743,10 +1743,10 @@
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="5"/>
     </row>
@@ -1755,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E48" s="5"/>
     </row>
@@ -1769,10 +1769,10 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E49" s="5"/>
     </row>
@@ -1780,23 +1780,23 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51" s="5"/>
     </row>
@@ -1804,10 +1804,10 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E52" s="5"/>
     </row>
@@ -1815,23 +1815,23 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54" s="5"/>
     </row>
@@ -1839,23 +1839,23 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E56" s="5"/>
     </row>
@@ -1863,23 +1863,23 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -1887,10 +1887,10 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E59" s="5"/>
     </row>
@@ -1898,10 +1898,10 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E60" s="5"/>
     </row>
@@ -1909,10 +1909,10 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E61" s="5"/>
     </row>
@@ -1920,10 +1920,10 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E62" s="5"/>
     </row>
@@ -1931,10 +1931,10 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E63" s="5"/>
     </row>
@@ -1942,16 +1942,16 @@
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E64" s="5"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D66" s="1">
         <f>SUM(E2:E64)</f>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTA(C2:C64)-D66</f>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D68" s="1">
         <f>D66+D67</f>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D69" s="7">
         <f>SUM(E2:E64)/COUNTA(C2:C64)</f>

--- a/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
+++ b/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -815,6 +815,12 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,16 +830,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1191,10 +1191,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1208,8 +1208,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1221,8 +1221,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,8 +1234,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,8 +1247,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1262,8 +1262,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1275,8 +1275,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1288,8 +1288,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1299,8 +1299,8 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1310,8 +1310,8 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1321,8 +1321,8 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1332,8 +1332,8 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>123</v>
       </c>
@@ -1343,8 +1343,8 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1356,8 +1356,8 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1367,10 +1367,10 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1384,8 +1384,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1397,8 +1397,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1410,8 +1410,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
         <v>127</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1438,8 +1438,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1448,33 +1448,39 @@
       <c r="D21" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1486,8 +1492,8 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="3" t="s">
         <v>132</v>
       </c>
@@ -1497,8 +1503,8 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3" t="s">
         <v>133</v>
       </c>
@@ -1508,8 +1514,8 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
         <v>125</v>
       </c>
@@ -1519,10 +1525,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1534,8 +1540,8 @@
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
@@ -1545,8 +1551,8 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1558,8 +1564,8 @@
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
@@ -1569,8 +1575,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1580,8 +1586,8 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1591,8 +1597,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1602,8 +1608,8 @@
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
@@ -1613,8 +1619,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
@@ -1624,8 +1630,8 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1637,8 +1643,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1648,8 +1654,8 @@
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1661,8 +1667,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1672,8 +1678,8 @@
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1689,8 @@
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1696,8 +1702,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="3" t="s">
         <v>93</v>
       </c>
@@ -1707,8 +1713,8 @@
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
@@ -1718,8 +1724,8 @@
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1729,8 +1735,8 @@
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
@@ -1740,8 +1746,8 @@
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
@@ -1751,10 +1757,10 @@
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1766,8 +1772,8 @@
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="3" t="s">
         <v>135</v>
       </c>
@@ -1777,8 +1783,8 @@
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
         <v>136</v>
       </c>
@@ -1788,8 +1794,8 @@
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -1801,8 +1807,8 @@
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="3" t="s">
         <v>138</v>
       </c>
@@ -1812,8 +1818,8 @@
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="3" t="s">
         <v>139</v>
       </c>
@@ -1823,8 +1829,8 @@
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -1836,8 +1842,8 @@
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="3" t="s">
         <v>141</v>
       </c>
@@ -1847,8 +1853,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -1860,8 +1866,8 @@
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
         <v>143</v>
       </c>
@@ -1871,8 +1877,8 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -1884,8 +1890,8 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
         <v>145</v>
       </c>
@@ -1895,8 +1901,8 @@
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
         <v>146</v>
       </c>
@@ -1906,8 +1912,8 @@
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="3" t="s">
         <v>147</v>
       </c>
@@ -1917,8 +1923,8 @@
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="3" t="s">
         <v>148</v>
       </c>
@@ -1928,8 +1934,8 @@
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="3" t="s">
         <v>149</v>
       </c>
@@ -1939,8 +1945,8 @@
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="3" t="s">
         <v>150</v>
       </c>
@@ -1955,7 +1961,7 @@
       </c>
       <c r="D66" s="1">
         <f>SUM(E2:E64)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
@@ -1964,7 +1970,7 @@
       </c>
       <c r="D67" s="1">
         <f>COUNTA(C2:C64)-D66</f>
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
@@ -1982,11 +1988,15 @@
       </c>
       <c r="D69" s="7">
         <f>SUM(E2:E64)/COUNTA(C2:C64)</f>
-        <v>0.19047619047619047</v>
+        <v>0.23809523809523808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="B24:B27"/>
@@ -2003,10 +2013,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:E64">

--- a/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
+++ b/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="2652" windowWidth="18288" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -815,6 +815,12 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,16 +830,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,7 +1151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,19 +1161,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="4" max="4" width="47.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>115</v>
       </c>
@@ -1190,11 +1190,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1207,9 +1207,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1220,9 +1220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,9 +1233,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="13"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1246,9 +1246,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1261,9 +1261,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1274,9 +1274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1287,9 +1287,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1298,9 +1298,9 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1309,9 +1309,9 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1320,9 +1320,9 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1331,9 +1331,9 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="13"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>123</v>
       </c>
@@ -1342,9 +1342,9 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1355,9 +1355,9 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1366,11 +1366,11 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1383,9 +1383,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1396,9 +1396,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1409,9 +1409,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
         <v>127</v>
       </c>
@@ -1422,8 +1422,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1437,9 +1437,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1448,33 +1448,39 @@
       <c r="D21" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1485,9 +1491,9 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="3" t="s">
         <v>132</v>
       </c>
@@ -1496,9 +1502,9 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3" t="s">
         <v>133</v>
       </c>
@@ -1507,9 +1513,9 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
         <v>125</v>
       </c>
@@ -1518,11 +1524,11 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1533,9 +1539,9 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
@@ -1544,9 +1550,9 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1557,9 +1563,9 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
@@ -1568,9 +1574,9 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1579,9 +1585,9 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1590,9 +1596,9 @@
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1601,9 +1607,9 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
@@ -1612,9 +1618,9 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
@@ -1623,9 +1629,9 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1636,9 +1642,9 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1647,9 +1653,9 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1660,9 +1666,9 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1671,9 +1677,9 @@
       </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1682,9 +1688,9 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1695,9 +1701,9 @@
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="3" t="s">
         <v>93</v>
       </c>
@@ -1706,9 +1712,9 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
@@ -1717,9 +1723,9 @@
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1728,9 +1734,9 @@
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
@@ -1739,9 +1745,9 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
@@ -1750,11 +1756,11 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1765,9 +1771,9 @@
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="3" t="s">
         <v>135</v>
       </c>
@@ -1776,9 +1782,9 @@
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
         <v>136</v>
       </c>
@@ -1787,9 +1793,9 @@
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -1800,9 +1806,9 @@
       </c>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="3" t="s">
         <v>138</v>
       </c>
@@ -1811,9 +1817,9 @@
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="3" t="s">
         <v>139</v>
       </c>
@@ -1822,9 +1828,9 @@
       </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -1835,9 +1841,9 @@
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="3" t="s">
         <v>141</v>
       </c>
@@ -1846,9 +1852,9 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -1859,9 +1865,9 @@
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
         <v>143</v>
       </c>
@@ -1870,9 +1876,9 @@
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -1883,9 +1889,9 @@
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
         <v>145</v>
       </c>
@@ -1894,9 +1900,9 @@
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
         <v>146</v>
       </c>
@@ -1905,9 +1911,9 @@
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="3" t="s">
         <v>147</v>
       </c>
@@ -1916,9 +1922,9 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="3" t="s">
         <v>148</v>
       </c>
@@ -1927,9 +1933,9 @@
       </c>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="3" t="s">
         <v>149</v>
       </c>
@@ -1938,9 +1944,9 @@
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="3" t="s">
         <v>150</v>
       </c>
@@ -1949,25 +1955,25 @@
       </c>
       <c r="E64" s="5"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D66" s="1">
         <f>SUM(E2:E64)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTA(C2:C64)-D66</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>122</v>
       </c>
@@ -1976,17 +1982,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C69" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D69" s="7">
         <f>SUM(E2:E64)/COUNTA(C2:C64)</f>
-        <v>0.19047619047619047</v>
+        <v>0.23809523809523808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="B24:B27"/>
@@ -2003,10 +2013,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:E64">

--- a/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
+++ b/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A066331D-D481-4C09-AFA2-97C9BE0D3596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="6435"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="23775" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -647,7 +648,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -815,6 +816,12 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,16 +831,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,11 +1159,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1191,10 +1192,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1208,8 +1209,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1221,8 +1222,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,8 +1235,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,8 +1248,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1262,8 +1263,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1275,8 +1276,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1288,19 +1289,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1310,8 +1313,8 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1321,8 +1324,8 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1332,8 +1335,8 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>123</v>
       </c>
@@ -1343,8 +1346,8 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1356,8 +1359,8 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1367,10 +1370,10 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1384,8 +1387,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1397,8 +1400,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1410,8 +1413,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
         <v>127</v>
       </c>
@@ -1423,7 +1426,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1438,8 +1441,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1448,33 +1451,39 @@
       <c r="D21" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1486,8 +1495,8 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="3" t="s">
         <v>132</v>
       </c>
@@ -1497,8 +1506,8 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3" t="s">
         <v>133</v>
       </c>
@@ -1508,8 +1517,8 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
         <v>125</v>
       </c>
@@ -1519,10 +1528,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1531,22 +1540,26 @@
       <c r="D28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1555,33 +1568,39 @@
       <c r="D30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1591,8 +1610,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1602,8 +1621,8 @@
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
@@ -1613,8 +1632,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
@@ -1624,8 +1643,8 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1637,8 +1656,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1648,8 +1667,8 @@
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1661,8 +1680,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1672,8 +1691,8 @@
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1702,8 @@
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1696,8 +1715,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="3" t="s">
         <v>93</v>
       </c>
@@ -1707,8 +1726,8 @@
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
@@ -1718,8 +1737,8 @@
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1729,8 +1748,8 @@
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
@@ -1740,8 +1759,8 @@
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
@@ -1751,10 +1770,10 @@
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1766,8 +1785,8 @@
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="3" t="s">
         <v>135</v>
       </c>
@@ -1777,8 +1796,8 @@
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
         <v>136</v>
       </c>
@@ -1788,8 +1807,8 @@
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -1801,8 +1820,8 @@
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="3" t="s">
         <v>138</v>
       </c>
@@ -1812,8 +1831,8 @@
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="3" t="s">
         <v>139</v>
       </c>
@@ -1823,8 +1842,8 @@
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -1836,8 +1855,8 @@
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="3" t="s">
         <v>141</v>
       </c>
@@ -1847,8 +1866,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -1860,8 +1879,8 @@
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
         <v>143</v>
       </c>
@@ -1871,8 +1890,8 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -1884,8 +1903,8 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
         <v>145</v>
       </c>
@@ -1895,8 +1914,8 @@
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
         <v>146</v>
       </c>
@@ -1906,8 +1925,8 @@
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="3" t="s">
         <v>147</v>
       </c>
@@ -1917,8 +1936,8 @@
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="3" t="s">
         <v>148</v>
       </c>
@@ -1928,8 +1947,8 @@
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="3" t="s">
         <v>149</v>
       </c>
@@ -1939,8 +1958,8 @@
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="3" t="s">
         <v>150</v>
       </c>
@@ -1955,7 +1974,7 @@
       </c>
       <c r="D66" s="1">
         <f>SUM(E2:E64)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
@@ -1964,7 +1983,7 @@
       </c>
       <c r="D67" s="1">
         <f>COUNTA(C2:C64)-D66</f>
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
@@ -1982,11 +2001,15 @@
       </c>
       <c r="D69" s="7">
         <f>SUM(E2:E64)/COUNTA(C2:C64)</f>
-        <v>0.19047619047619047</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="B24:B27"/>
@@ -2003,10 +2026,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:E64">

--- a/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
+++ b/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A066331D-D481-4C09-AFA2-97C9BE0D3596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="23775" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -648,7 +647,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -816,16 +815,16 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,11 +1158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1194,7 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1210,7 +1209,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1222,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1235,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1248,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1264,7 +1263,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1276,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1290,7 +1289,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1303,7 +1302,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1313,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1325,7 +1324,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1336,7 +1335,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>123</v>
       </c>
@@ -1370,10 +1369,10 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1387,8 +1386,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1400,8 +1399,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1413,8 +1412,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
         <v>127</v>
       </c>
@@ -1426,7 +1425,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1441,8 +1440,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1456,8 +1455,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1469,8 +1468,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
         <v>130</v>
       </c>
@@ -1482,8 +1481,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1495,8 +1494,8 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3" t="s">
         <v>132</v>
       </c>
@@ -1506,8 +1505,8 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3" t="s">
         <v>133</v>
       </c>
@@ -1517,8 +1516,8 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="3" t="s">
         <v>125</v>
       </c>
@@ -1528,10 +1527,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1545,8 +1544,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
@@ -1558,8 +1557,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1573,8 +1572,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
@@ -1586,8 +1585,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1599,8 +1598,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1610,8 +1609,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1621,8 +1620,8 @@
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
@@ -1632,8 +1631,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
@@ -1643,8 +1642,8 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1656,8 +1655,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1667,8 +1666,8 @@
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1680,8 +1679,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1691,8 +1690,8 @@
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1702,8 +1701,8 @@
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1715,8 +1714,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
         <v>93</v>
       </c>
@@ -1726,8 +1725,8 @@
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
@@ -1737,8 +1736,8 @@
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1748,8 +1747,8 @@
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
@@ -1759,8 +1758,8 @@
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
@@ -1770,10 +1769,10 @@
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1782,33 +1781,39 @@
       <c r="D48" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -1817,11 +1822,13 @@
       <c r="D51" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="3" t="s">
         <v>138</v>
       </c>
@@ -1831,8 +1838,8 @@
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="3" t="s">
         <v>139</v>
       </c>
@@ -1842,8 +1849,8 @@
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -1852,11 +1859,13 @@
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="3" t="s">
         <v>141</v>
       </c>
@@ -1866,8 +1875,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -1876,11 +1885,13 @@
       <c r="D56" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="3" t="s">
         <v>143</v>
       </c>
@@ -1890,8 +1901,8 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -1900,11 +1911,13 @@
       <c r="D58" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="3" t="s">
         <v>145</v>
       </c>
@@ -1914,8 +1927,8 @@
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="3" t="s">
         <v>146</v>
       </c>
@@ -1925,8 +1938,8 @@
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="3" t="s">
         <v>147</v>
       </c>
@@ -1936,8 +1949,8 @@
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="3" t="s">
         <v>148</v>
       </c>
@@ -1947,8 +1960,8 @@
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="3" t="s">
         <v>149</v>
       </c>
@@ -1958,8 +1971,8 @@
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="3" t="s">
         <v>150</v>
       </c>
@@ -1974,7 +1987,7 @@
       </c>
       <c r="D66" s="1">
         <f>SUM(E2:E64)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
@@ -1983,7 +1996,7 @@
       </c>
       <c r="D67" s="1">
         <f>COUNTA(C2:C64)-D66</f>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
@@ -2001,18 +2014,11 @@
       </c>
       <c r="D69" s="7">
         <f>SUM(E2:E64)/COUNTA(C2:C64)</f>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B24:B27"/>
     <mergeCell ref="A48:A64"/>
     <mergeCell ref="A28:A47"/>
     <mergeCell ref="A16:A27"/>
@@ -2026,6 +2032,13 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:E64">

--- a/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
+++ b/FoodByte/src/main/webapp/푸바 command 작업진행률.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="6465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
   <si>
     <t>main</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -641,6 +641,10 @@
   </si>
   <si>
     <t>마이페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -815,13 +819,10 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,6 +835,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1191,10 +1195,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1208,8 +1212,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1221,8 +1225,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,8 +1238,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,8 +1251,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1262,8 +1266,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1275,8 +1279,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1288,8 +1292,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1301,8 +1305,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1312,8 +1316,8 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1327,8 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1334,8 +1338,8 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3" t="s">
         <v>123</v>
       </c>
@@ -1345,8 +1349,8 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1358,8 +1362,8 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1369,10 +1373,10 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1386,8 +1390,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1399,8 +1403,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1412,8 +1416,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
         <v>127</v>
       </c>
@@ -1425,7 +1429,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1440,8 +1444,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1455,8 +1459,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1468,8 +1472,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
         <v>130</v>
       </c>
@@ -1481,8 +1485,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1494,8 +1498,8 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
         <v>132</v>
       </c>
@@ -1505,8 +1509,8 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="3" t="s">
         <v>133</v>
       </c>
@@ -1516,8 +1520,8 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
         <v>125</v>
       </c>
@@ -1527,10 +1531,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1544,8 +1548,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
@@ -1557,8 +1561,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1572,8 +1576,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
@@ -1585,8 +1589,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1598,8 +1602,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1609,8 +1613,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1620,8 +1624,8 @@
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
@@ -1631,8 +1635,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
@@ -1642,8 +1646,8 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1655,8 +1659,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1666,8 +1670,8 @@
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1679,8 +1683,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1690,8 +1694,8 @@
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1701,8 +1705,8 @@
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1714,8 +1718,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="3" t="s">
         <v>93</v>
       </c>
@@ -1725,8 +1729,8 @@
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
@@ -1736,8 +1740,8 @@
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1747,8 +1751,8 @@
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
@@ -1758,8 +1762,8 @@
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
@@ -1769,10 +1773,10 @@
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1786,8 +1790,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="3" t="s">
         <v>135</v>
       </c>
@@ -1799,8 +1803,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
         <v>136</v>
       </c>
@@ -1812,8 +1816,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -1827,30 +1831,34 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -1864,19 +1872,21 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -1890,8 +1900,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="3" t="s">
         <v>143</v>
       </c>
@@ -1901,8 +1911,8 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -1916,70 +1926,82 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
@@ -1987,7 +2009,7 @@
       </c>
       <c r="D66" s="1">
         <f>SUM(E2:E64)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
@@ -1996,7 +2018,7 @@
       </c>
       <c r="D67" s="1">
         <f>COUNTA(C2:C64)-D66</f>
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
@@ -2014,11 +2036,15 @@
       </c>
       <c r="D69" s="7">
         <f>SUM(E2:E64)/COUNTA(C2:C64)</f>
-        <v>0.44444444444444442</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="A48:A64"/>
     <mergeCell ref="A28:A47"/>
     <mergeCell ref="A16:A27"/>
@@ -2035,10 +2061,6 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:E64">
